--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0664485</v>
+        <v>1.4179035</v>
       </c>
       <c r="H2">
-        <v>2.132897</v>
+        <v>2.835807</v>
       </c>
       <c r="I2">
-        <v>0.05919991215896408</v>
+        <v>0.08031318268904286</v>
       </c>
       <c r="J2">
-        <v>0.04426563970404137</v>
+        <v>0.06142585435943788</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.595763499999999</v>
+        <v>9.432680000000001</v>
       </c>
       <c r="N2">
-        <v>15.191527</v>
+        <v>18.86536</v>
       </c>
       <c r="O2">
-        <v>0.1268077702461478</v>
+        <v>0.1578416516081298</v>
       </c>
       <c r="P2">
-        <v>0.09750189942720214</v>
+        <v>0.1235991598169208</v>
       </c>
       <c r="Q2">
-        <v>8.100490590929748</v>
+        <v>13.37462998638</v>
       </c>
       <c r="R2">
-        <v>32.40196236371899</v>
+        <v>53.49851994552001</v>
       </c>
       <c r="S2">
-        <v>0.007507008859646048</v>
+        <v>0.01267676540154398</v>
       </c>
       <c r="T2">
-        <v>0.004315983950504207</v>
+        <v>0.007592183989863065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0664485</v>
+        <v>1.4179035</v>
       </c>
       <c r="H3">
-        <v>2.132897</v>
+        <v>2.835807</v>
       </c>
       <c r="I3">
-        <v>0.05919991215896408</v>
+        <v>0.08031318268904286</v>
       </c>
       <c r="J3">
-        <v>0.04426563970404137</v>
+        <v>0.06142585435943788</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>88.049318</v>
       </c>
       <c r="O3">
-        <v>0.4899809254318325</v>
+        <v>0.4911241123445096</v>
       </c>
       <c r="P3">
-        <v>0.5651160510901728</v>
+        <v>0.5768679594374495</v>
       </c>
       <c r="Q3">
-        <v>31.30002103570767</v>
+        <v>41.615145388271</v>
       </c>
       <c r="R3">
-        <v>187.800126214246</v>
+        <v>249.690872329626</v>
       </c>
       <c r="S3">
-        <v>0.02900682774513241</v>
+        <v>0.03944374055771861</v>
       </c>
       <c r="T3">
-        <v>0.02501522350852823</v>
+        <v>0.03543460726103089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0664485</v>
+        <v>1.4179035</v>
       </c>
       <c r="H4">
-        <v>2.132897</v>
+        <v>2.835807</v>
       </c>
       <c r="I4">
-        <v>0.05919991215896408</v>
+        <v>0.08031318268904286</v>
       </c>
       <c r="J4">
-        <v>0.04426563970404137</v>
+        <v>0.06142585435943788</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3022816666666666</v>
+        <v>0.5731823333333333</v>
       </c>
       <c r="N4">
-        <v>0.9068449999999999</v>
+        <v>1.719547</v>
       </c>
       <c r="O4">
-        <v>0.005046453083523374</v>
+        <v>0.009591340548596464</v>
       </c>
       <c r="P4">
-        <v>0.005820291139005389</v>
+        <v>0.0112658631728049</v>
       </c>
       <c r="Q4">
-        <v>0.3223678299941666</v>
+        <v>0.8127172365715</v>
       </c>
       <c r="R4">
-        <v>1.934206979965</v>
+        <v>4.876303419429</v>
       </c>
       <c r="S4">
-        <v>0.0002987495792589172</v>
+        <v>0.0007703110857122524</v>
       </c>
       <c r="T4">
-        <v>0.0002576389105318371</v>
+        <v>0.0006920152704860687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0664485</v>
+        <v>1.4179035</v>
       </c>
       <c r="H5">
-        <v>2.132897</v>
+        <v>2.835807</v>
       </c>
       <c r="I5">
-        <v>0.05919991215896408</v>
+        <v>0.08031318268904286</v>
       </c>
       <c r="J5">
-        <v>0.04426563970404137</v>
+        <v>0.06142585435943788</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.2962195</v>
+        <v>17.2151155</v>
       </c>
       <c r="N5">
-        <v>32.592439</v>
+        <v>34.43023100000001</v>
       </c>
       <c r="O5">
-        <v>0.2720578725544566</v>
+        <v>0.2880689542255981</v>
       </c>
       <c r="P5">
-        <v>0.2091840214262345</v>
+        <v>0.2255746841779061</v>
       </c>
       <c r="Q5">
-        <v>17.37907884144575</v>
+        <v>24.40937252035425</v>
       </c>
       <c r="R5">
-        <v>69.51631536578299</v>
+        <v>97.63749008141701</v>
       </c>
       <c r="S5">
-        <v>0.01610580215737848</v>
+        <v>0.02313573454776198</v>
       </c>
       <c r="T5">
-        <v>0.009259664524296168</v>
+        <v>0.01385611769748825</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0664485</v>
+        <v>1.4179035</v>
       </c>
       <c r="H6">
-        <v>2.132897</v>
+        <v>2.835807</v>
       </c>
       <c r="I6">
-        <v>0.05919991215896408</v>
+        <v>0.08031318268904286</v>
       </c>
       <c r="J6">
-        <v>0.04426563970404137</v>
+        <v>0.06142585435943788</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.582807</v>
+        <v>3.023362333333333</v>
       </c>
       <c r="N6">
-        <v>16.748421</v>
+        <v>9.070087000000001</v>
       </c>
       <c r="O6">
-        <v>0.09320238938252694</v>
+        <v>0.05059140181826821</v>
       </c>
       <c r="P6">
-        <v>0.1074943196892874</v>
+        <v>0.05942399894125402</v>
       </c>
       <c r="Q6">
-        <v>5.9537761509395</v>
+        <v>4.2868360342015</v>
       </c>
       <c r="R6">
-        <v>35.722656905637</v>
+        <v>25.721016205209</v>
       </c>
       <c r="S6">
-        <v>0.005517573264451161</v>
+        <v>0.00406315649672535</v>
       </c>
       <c r="T6">
-        <v>0.004758304825597034</v>
+        <v>0.00365016990442086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0664485</v>
+        <v>1.4179035</v>
       </c>
       <c r="H7">
-        <v>2.132897</v>
+        <v>2.835807</v>
       </c>
       <c r="I7">
-        <v>0.05919991215896408</v>
+        <v>0.08031318268904286</v>
       </c>
       <c r="J7">
-        <v>0.04426563970404137</v>
+        <v>0.06142585435943788</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7729826666666667</v>
+        <v>0.1662856666666667</v>
       </c>
       <c r="N7">
-        <v>2.318948</v>
+        <v>0.498857</v>
       </c>
       <c r="O7">
-        <v>0.01290458930151279</v>
+        <v>0.002782539454897822</v>
       </c>
       <c r="P7">
-        <v>0.01488341722809771</v>
+        <v>0.003268334453664794</v>
       </c>
       <c r="Q7">
-        <v>0.8243462053926667</v>
+        <v>0.2357770287665</v>
       </c>
       <c r="R7">
-        <v>4.946077232356</v>
+        <v>1.414662172599</v>
       </c>
       <c r="S7">
-        <v>0.0007639505530970646</v>
+        <v>0.0002234745995806785</v>
       </c>
       <c r="T7">
-        <v>0.0006588239845838955</v>
+        <v>0.0002007602361487466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>7.3104</v>
       </c>
       <c r="I8">
-        <v>0.1352698662419833</v>
+        <v>0.1380257285327666</v>
       </c>
       <c r="J8">
-        <v>0.1517183119918233</v>
+        <v>0.1583491280292469</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.595763499999999</v>
+        <v>9.432680000000001</v>
       </c>
       <c r="N8">
-        <v>15.191527</v>
+        <v>18.86536</v>
       </c>
       <c r="O8">
-        <v>0.1268077702461478</v>
+        <v>0.1578416516081298</v>
       </c>
       <c r="P8">
-        <v>0.09750189942720214</v>
+        <v>0.1235991598169208</v>
       </c>
       <c r="Q8">
-        <v>18.5093564968</v>
+        <v>22.985554624</v>
       </c>
       <c r="R8">
-        <v>111.0561389808</v>
+        <v>137.913327744</v>
       </c>
       <c r="S8">
-        <v>0.01715327011964056</v>
+        <v>0.02178620895602724</v>
       </c>
       <c r="T8">
-        <v>0.01479282359709163</v>
+        <v>0.01957181918215695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>7.3104</v>
       </c>
       <c r="I9">
-        <v>0.1352698662419833</v>
+        <v>0.1380257285327666</v>
       </c>
       <c r="J9">
-        <v>0.1517183119918233</v>
+        <v>0.1583491280292469</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>88.049318</v>
       </c>
       <c r="O9">
-        <v>0.4899809254318325</v>
+        <v>0.4911241123445096</v>
       </c>
       <c r="P9">
-        <v>0.5651160510901728</v>
+        <v>0.5768679594374495</v>
       </c>
       <c r="Q9">
         <v>71.51952603413334</v>
@@ -1013,10 +1013,10 @@
         <v>643.6757343071999</v>
       </c>
       <c r="S9">
-        <v>0.06627965424428715</v>
+        <v>0.06778776340635925</v>
       </c>
       <c r="T9">
-        <v>0.08573845335088602</v>
+        <v>0.0913465383649311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>7.3104</v>
       </c>
       <c r="I10">
-        <v>0.1352698662419833</v>
+        <v>0.1380257285327666</v>
       </c>
       <c r="J10">
-        <v>0.1517183119918233</v>
+        <v>0.1583491280292469</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3022816666666666</v>
+        <v>0.5731823333333333</v>
       </c>
       <c r="N10">
-        <v>0.9068449999999999</v>
+        <v>1.719547</v>
       </c>
       <c r="O10">
-        <v>0.005046453083523374</v>
+        <v>0.009591340548596464</v>
       </c>
       <c r="P10">
-        <v>0.005820291139005389</v>
+        <v>0.0112658631728049</v>
       </c>
       <c r="Q10">
-        <v>0.7365999653333332</v>
+        <v>1.396730709866667</v>
       </c>
       <c r="R10">
-        <v>6.629399687999999</v>
+        <v>12.5705763888</v>
       </c>
       <c r="S10">
-        <v>0.0006826330336046508</v>
+        <v>0.001323851766825892</v>
       </c>
       <c r="T10">
-        <v>0.0008830447469108644</v>
+        <v>0.001783939609910462</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>7.3104</v>
       </c>
       <c r="I11">
-        <v>0.1352698662419833</v>
+        <v>0.1380257285327666</v>
       </c>
       <c r="J11">
-        <v>0.1517183119918233</v>
+        <v>0.1583491280292469</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.2962195</v>
+        <v>17.2151155</v>
       </c>
       <c r="N11">
-        <v>32.592439</v>
+        <v>34.43023100000001</v>
       </c>
       <c r="O11">
-        <v>0.2720578725544566</v>
+        <v>0.2880689542255981</v>
       </c>
       <c r="P11">
-        <v>0.2091840214262345</v>
+        <v>0.2255746841779061</v>
       </c>
       <c r="Q11">
-        <v>39.71062767759999</v>
+        <v>41.94979345040001</v>
       </c>
       <c r="R11">
-        <v>238.2637660656</v>
+        <v>251.6987607024</v>
       </c>
       <c r="S11">
-        <v>0.03680123203051987</v>
+        <v>0.03976092727466037</v>
       </c>
       <c r="T11">
-        <v>0.03173704662644971</v>
+        <v>0.03571955454504419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>7.3104</v>
       </c>
       <c r="I12">
-        <v>0.1352698662419833</v>
+        <v>0.1380257285327666</v>
       </c>
       <c r="J12">
-        <v>0.1517183119918233</v>
+        <v>0.1583491280292469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.582807</v>
+        <v>3.023362333333333</v>
       </c>
       <c r="N12">
-        <v>16.748421</v>
+        <v>9.070087000000001</v>
       </c>
       <c r="O12">
-        <v>0.09320238938252694</v>
+        <v>0.05059140181826821</v>
       </c>
       <c r="P12">
-        <v>0.1074943196892874</v>
+        <v>0.05942399894125402</v>
       </c>
       <c r="Q12">
-        <v>13.6041840976</v>
+        <v>7.367329333866667</v>
       </c>
       <c r="R12">
-        <v>122.4376568784</v>
+        <v>66.3059640048</v>
       </c>
       <c r="S12">
-        <v>0.01260747474520766</v>
+        <v>0.006982915093460404</v>
       </c>
       <c r="T12">
-        <v>0.0163088567319681</v>
+        <v>0.009409738416358466</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>7.3104</v>
       </c>
       <c r="I13">
-        <v>0.1352698662419833</v>
+        <v>0.1380257285327666</v>
       </c>
       <c r="J13">
-        <v>0.1517183119918233</v>
+        <v>0.1583491280292469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7729826666666667</v>
+        <v>0.1662856666666667</v>
       </c>
       <c r="N13">
-        <v>2.318948</v>
+        <v>0.498857</v>
       </c>
       <c r="O13">
-        <v>0.01290458930151279</v>
+        <v>0.002782539454897822</v>
       </c>
       <c r="P13">
-        <v>0.01488341722809771</v>
+        <v>0.003268334453664794</v>
       </c>
       <c r="Q13">
-        <v>1.883604162133333</v>
+        <v>0.4052049125333333</v>
       </c>
       <c r="R13">
-        <v>16.9524374592</v>
+        <v>3.6468442128</v>
       </c>
       <c r="S13">
-        <v>0.001745602068723363</v>
+        <v>0.0003840620354334392</v>
       </c>
       <c r="T13">
-        <v>0.002258086938517007</v>
+        <v>0.0005175379108457653</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.084561333333333</v>
+        <v>3.263771666666667</v>
       </c>
       <c r="H14">
-        <v>12.253684</v>
+        <v>9.791314999999999</v>
       </c>
       <c r="I14">
-        <v>0.2267391928829517</v>
+        <v>0.1848672283553302</v>
       </c>
       <c r="J14">
-        <v>0.2543100585687806</v>
+        <v>0.2120877369924609</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.595763499999999</v>
+        <v>9.432680000000001</v>
       </c>
       <c r="N14">
-        <v>15.191527</v>
+        <v>18.86536</v>
       </c>
       <c r="O14">
-        <v>0.1268077702461478</v>
+        <v>0.1578416516081298</v>
       </c>
       <c r="P14">
-        <v>0.09750189942720214</v>
+        <v>0.1235991598169208</v>
       </c>
       <c r="Q14">
-        <v>31.02536188924466</v>
+        <v>30.78611372473334</v>
       </c>
       <c r="R14">
-        <v>186.152171335468</v>
+        <v>184.7166823484</v>
       </c>
       <c r="S14">
-        <v>0.02875229147689833</v>
+        <v>0.02917974865182259</v>
       </c>
       <c r="T14">
-        <v>0.02479571375389913</v>
+        <v>0.02621386609974024</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.084561333333333</v>
+        <v>3.263771666666667</v>
       </c>
       <c r="H15">
-        <v>12.253684</v>
+        <v>9.791314999999999</v>
       </c>
       <c r="I15">
-        <v>0.2267391928829517</v>
+        <v>0.1848672283553302</v>
       </c>
       <c r="J15">
-        <v>0.2543100585687806</v>
+        <v>0.2120877369924609</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>88.049318</v>
       </c>
       <c r="O15">
-        <v>0.4899809254318325</v>
+        <v>0.4911241123445096</v>
       </c>
       <c r="P15">
-        <v>0.5651160510901728</v>
+        <v>0.5768679594374495</v>
       </c>
       <c r="Q15">
-        <v>119.8809465763902</v>
+        <v>95.79095645257443</v>
       </c>
       <c r="R15">
-        <v>1078.928519187512</v>
+        <v>862.1186080731699</v>
       </c>
       <c r="S15">
-        <v>0.1110978795604555</v>
+        <v>0.09079275342760129</v>
       </c>
       <c r="T15">
-        <v>0.1437146960508999</v>
+        <v>0.1223466200605474</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.084561333333333</v>
+        <v>3.263771666666667</v>
       </c>
       <c r="H16">
-        <v>12.253684</v>
+        <v>9.791314999999999</v>
       </c>
       <c r="I16">
-        <v>0.2267391928829517</v>
+        <v>0.1848672283553302</v>
       </c>
       <c r="J16">
-        <v>0.2543100585687806</v>
+        <v>0.2120877369924609</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3022816666666666</v>
+        <v>0.5731823333333333</v>
       </c>
       <c r="N16">
-        <v>0.9068449999999999</v>
+        <v>1.719547</v>
       </c>
       <c r="O16">
-        <v>0.005046453083523374</v>
+        <v>0.009591340548596464</v>
       </c>
       <c r="P16">
-        <v>0.005820291139005389</v>
+        <v>0.0112658631728049</v>
       </c>
       <c r="Q16">
-        <v>1.234688007442222</v>
+        <v>1.870736259367222</v>
       </c>
       <c r="R16">
-        <v>11.11219206698</v>
+        <v>16.836626334305</v>
       </c>
       <c r="S16">
-        <v>0.001144228699079773</v>
+        <v>0.00177312454343112</v>
       </c>
       <c r="T16">
-        <v>0.001480158580447815</v>
+        <v>0.002389351425586897</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.084561333333333</v>
+        <v>3.263771666666667</v>
       </c>
       <c r="H17">
-        <v>12.253684</v>
+        <v>9.791314999999999</v>
       </c>
       <c r="I17">
-        <v>0.2267391928829517</v>
+        <v>0.1848672283553302</v>
       </c>
       <c r="J17">
-        <v>0.2543100585687806</v>
+        <v>0.2120877369924609</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.2962195</v>
+        <v>17.2151155</v>
       </c>
       <c r="N17">
-        <v>32.592439</v>
+        <v>34.43023100000001</v>
       </c>
       <c r="O17">
-        <v>0.2720578725544566</v>
+        <v>0.2880689542255981</v>
       </c>
       <c r="P17">
-        <v>0.2091840214262345</v>
+        <v>0.2255746841779061</v>
       </c>
       <c r="Q17">
-        <v>66.56290804921267</v>
+        <v>56.18620620729418</v>
       </c>
       <c r="R17">
-        <v>399.377448295276</v>
+        <v>337.117237243765</v>
       </c>
       <c r="S17">
-        <v>0.06168618244045044</v>
+        <v>0.0532545091429048</v>
       </c>
       <c r="T17">
-        <v>0.05319760074055877</v>
+        <v>0.04784162429008117</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.084561333333333</v>
+        <v>3.263771666666667</v>
       </c>
       <c r="H18">
-        <v>12.253684</v>
+        <v>9.791314999999999</v>
       </c>
       <c r="I18">
-        <v>0.2267391928829517</v>
+        <v>0.1848672283553302</v>
       </c>
       <c r="J18">
-        <v>0.2543100585687806</v>
+        <v>0.2120877369924609</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.582807</v>
+        <v>3.023362333333333</v>
       </c>
       <c r="N18">
-        <v>16.748421</v>
+        <v>9.070087000000001</v>
       </c>
       <c r="O18">
-        <v>0.09320238938252694</v>
+        <v>0.05059140181826821</v>
       </c>
       <c r="P18">
-        <v>0.1074943196892874</v>
+        <v>0.05942399894125402</v>
       </c>
       <c r="Q18">
-        <v>22.80331760366267</v>
+        <v>9.867564321600556</v>
       </c>
       <c r="R18">
-        <v>205.229858432964</v>
+        <v>88.808078894405</v>
       </c>
       <c r="S18">
-        <v>0.02113263454335675</v>
+        <v>0.009352692232754055</v>
       </c>
       <c r="T18">
-        <v>0.0273368867359939</v>
+        <v>0.01260310145849296</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.084561333333333</v>
+        <v>3.263771666666667</v>
       </c>
       <c r="H19">
-        <v>12.253684</v>
+        <v>9.791314999999999</v>
       </c>
       <c r="I19">
-        <v>0.2267391928829517</v>
+        <v>0.1848672283553302</v>
       </c>
       <c r="J19">
-        <v>0.2543100585687806</v>
+        <v>0.2120877369924609</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7729826666666667</v>
+        <v>0.1662856666666667</v>
       </c>
       <c r="N19">
-        <v>2.318948</v>
+        <v>0.498857</v>
       </c>
       <c r="O19">
-        <v>0.01290458930151279</v>
+        <v>0.002782539454897822</v>
       </c>
       <c r="P19">
-        <v>0.01488341722809771</v>
+        <v>0.003268334453664794</v>
       </c>
       <c r="Q19">
-        <v>3.157295111603556</v>
+        <v>0.5427184474394444</v>
       </c>
       <c r="R19">
-        <v>28.415656004432</v>
+        <v>4.884466026955</v>
       </c>
       <c r="S19">
-        <v>0.002925976162710983</v>
+        <v>0.0005144003568163117</v>
       </c>
       <c r="T19">
-        <v>0.003785002706981129</v>
+        <v>0.0006931736580122571</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.792598</v>
+        <v>5.379792999999999</v>
       </c>
       <c r="H20">
-        <v>9.585196</v>
+        <v>10.759586</v>
       </c>
       <c r="I20">
-        <v>0.2660432084748837</v>
+        <v>0.3047233454450419</v>
       </c>
       <c r="J20">
-        <v>0.1989288899691914</v>
+        <v>0.2330612635499689</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.595763499999999</v>
+        <v>9.432680000000001</v>
       </c>
       <c r="N20">
-        <v>15.191527</v>
+        <v>18.86536</v>
       </c>
       <c r="O20">
-        <v>0.1268077702461478</v>
+        <v>0.1578416516081298</v>
       </c>
       <c r="P20">
-        <v>0.09750189942720214</v>
+        <v>0.1235991598169208</v>
       </c>
       <c r="Q20">
-        <v>36.40344095857299</v>
+        <v>50.74586583524</v>
       </c>
       <c r="R20">
-        <v>145.613763834292</v>
+        <v>202.98346334096</v>
       </c>
       <c r="S20">
-        <v>0.03373634605583104</v>
+        <v>0.04809803612860008</v>
       </c>
       <c r="T20">
-        <v>0.01939594462294107</v>
+        <v>0.02880617636064611</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.792598</v>
+        <v>5.379792999999999</v>
       </c>
       <c r="H21">
-        <v>9.585196</v>
+        <v>10.759586</v>
       </c>
       <c r="I21">
-        <v>0.2660432084748837</v>
+        <v>0.3047233454450419</v>
       </c>
       <c r="J21">
-        <v>0.1989288899691914</v>
+        <v>0.2330612635499689</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>88.049318</v>
       </c>
       <c r="O21">
-        <v>0.4899809254318325</v>
+        <v>0.4911241123445096</v>
       </c>
       <c r="P21">
-        <v>0.5651160510901728</v>
+        <v>0.5768679594374495</v>
       </c>
       <c r="Q21">
-        <v>140.6616617827213</v>
+        <v>157.8957015437246</v>
       </c>
       <c r="R21">
-        <v>843.969970696328</v>
+        <v>947.3742092623479</v>
       </c>
       <c r="S21">
-        <v>0.1303560974933775</v>
+        <v>0.1496569825423456</v>
       </c>
       <c r="T21">
-        <v>0.112417908747141</v>
+        <v>0.1344455755279842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.792598</v>
+        <v>5.379792999999999</v>
       </c>
       <c r="H22">
-        <v>9.585196</v>
+        <v>10.759586</v>
       </c>
       <c r="I22">
-        <v>0.2660432084748837</v>
+        <v>0.3047233454450419</v>
       </c>
       <c r="J22">
-        <v>0.1989288899691914</v>
+        <v>0.2330612635499689</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3022816666666666</v>
+        <v>0.5731823333333333</v>
       </c>
       <c r="N22">
-        <v>0.9068449999999999</v>
+        <v>1.719547</v>
       </c>
       <c r="O22">
-        <v>0.005046453083523374</v>
+        <v>0.009591340548596464</v>
       </c>
       <c r="P22">
-        <v>0.005820291139005389</v>
+        <v>0.0112658631728049</v>
       </c>
       <c r="Q22">
-        <v>1.448714511103333</v>
+        <v>3.083602304590333</v>
       </c>
       <c r="R22">
-        <v>8.692287066619999</v>
+        <v>18.501613827542</v>
       </c>
       <c r="S22">
-        <v>0.001342574569758529</v>
+        <v>0.002922705379270998</v>
       </c>
       <c r="T22">
-        <v>0.001157824055579863</v>
+        <v>0.002625636306034972</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.792598</v>
+        <v>5.379792999999999</v>
       </c>
       <c r="H23">
-        <v>9.585196</v>
+        <v>10.759586</v>
       </c>
       <c r="I23">
-        <v>0.2660432084748837</v>
+        <v>0.3047233454450419</v>
       </c>
       <c r="J23">
-        <v>0.1989288899691914</v>
+        <v>0.2330612635499689</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.2962195</v>
+        <v>17.2151155</v>
       </c>
       <c r="N23">
-        <v>32.592439</v>
+        <v>34.43023100000001</v>
       </c>
       <c r="O23">
-        <v>0.2720578725544566</v>
+        <v>0.2880689542255981</v>
       </c>
       <c r="P23">
-        <v>0.2091840214262345</v>
+        <v>0.2255746841779061</v>
       </c>
       <c r="Q23">
-        <v>78.101228983261</v>
+        <v>92.6137578610915</v>
       </c>
       <c r="R23">
-        <v>312.404915933044</v>
+        <v>370.455031444366</v>
       </c>
       <c r="S23">
-        <v>0.07237914930523863</v>
+        <v>0.08778133545047888</v>
       </c>
       <c r="T23">
-        <v>0.0416127451816124</v>
+        <v>0.05257272091938796</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.792598</v>
+        <v>5.379792999999999</v>
       </c>
       <c r="H24">
-        <v>9.585196</v>
+        <v>10.759586</v>
       </c>
       <c r="I24">
-        <v>0.2660432084748837</v>
+        <v>0.3047233454450419</v>
       </c>
       <c r="J24">
-        <v>0.1989288899691914</v>
+        <v>0.2330612635499689</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.582807</v>
+        <v>3.023362333333333</v>
       </c>
       <c r="N24">
-        <v>16.748421</v>
+        <v>9.070087000000001</v>
       </c>
       <c r="O24">
-        <v>0.09320238938252694</v>
+        <v>0.05059140181826821</v>
       </c>
       <c r="P24">
-        <v>0.1074943196892874</v>
+        <v>0.05942399894125402</v>
       </c>
       <c r="Q24">
-        <v>26.756149662586</v>
+        <v>16.26506351733033</v>
       </c>
       <c r="R24">
-        <v>160.536897975516</v>
+        <v>97.590381103982</v>
       </c>
       <c r="S24">
-        <v>0.0247958627088529</v>
+        <v>0.01541638121281706</v>
       </c>
       <c r="T24">
-        <v>0.02138372569378333</v>
+        <v>0.01384943227844068</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.792598</v>
+        <v>5.379792999999999</v>
       </c>
       <c r="H25">
-        <v>9.585196</v>
+        <v>10.759586</v>
       </c>
       <c r="I25">
-        <v>0.2660432084748837</v>
+        <v>0.3047233454450419</v>
       </c>
       <c r="J25">
-        <v>0.1989288899691914</v>
+        <v>0.2330612635499689</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7729826666666667</v>
+        <v>0.1662856666666667</v>
       </c>
       <c r="N25">
-        <v>2.318948</v>
+        <v>0.498857</v>
       </c>
       <c r="O25">
-        <v>0.01290458930151279</v>
+        <v>0.002782539454897822</v>
       </c>
       <c r="P25">
-        <v>0.01488341722809771</v>
+        <v>0.003268334453664794</v>
       </c>
       <c r="Q25">
-        <v>3.704595182301333</v>
+        <v>0.8945824655336666</v>
       </c>
       <c r="R25">
-        <v>22.227571093808</v>
+        <v>5.367494793201999</v>
       </c>
       <c r="S25">
-        <v>0.00343317834182512</v>
+        <v>0.0008479047315292876</v>
       </c>
       <c r="T25">
-        <v>0.002960741668133818</v>
+        <v>0.0007617221574750143</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8298326666666668</v>
+        <v>2.824411333333333</v>
       </c>
       <c r="H26">
-        <v>2.489498</v>
+        <v>8.473234</v>
       </c>
       <c r="I26">
-        <v>0.04606506640808777</v>
+        <v>0.1599808896747932</v>
       </c>
       <c r="J26">
-        <v>0.05166645248782833</v>
+        <v>0.1835370452352495</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.595763499999999</v>
+        <v>9.432680000000001</v>
       </c>
       <c r="N26">
-        <v>15.191527</v>
+        <v>18.86536</v>
       </c>
       <c r="O26">
-        <v>0.1268077702461478</v>
+        <v>0.1578416516081298</v>
       </c>
       <c r="P26">
-        <v>0.09750189942720214</v>
+        <v>0.1235991598169208</v>
       </c>
       <c r="Q26">
-        <v>6.303212680574334</v>
+        <v>26.64176829570667</v>
       </c>
       <c r="R26">
-        <v>37.819276083446</v>
+        <v>159.85060977424</v>
       </c>
       <c r="S26">
-        <v>0.005841408357450334</v>
+        <v>0.02525164785200736</v>
       </c>
       <c r="T26">
-        <v>0.005037577254228556</v>
+        <v>0.02268502458635703</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.8298326666666668</v>
+        <v>2.824411333333333</v>
       </c>
       <c r="H27">
-        <v>2.489498</v>
+        <v>8.473234</v>
       </c>
       <c r="I27">
-        <v>0.04606506640808777</v>
+        <v>0.1599808896747932</v>
       </c>
       <c r="J27">
-        <v>0.05166645248782833</v>
+        <v>0.1835370452352495</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>88.049318</v>
       </c>
       <c r="O27">
-        <v>0.4899809254318325</v>
+        <v>0.4911241123445096</v>
       </c>
       <c r="P27">
-        <v>0.5651160510901728</v>
+        <v>0.5768679594374495</v>
       </c>
       <c r="Q27">
-        <v>24.35540011804045</v>
+        <v>82.89583055049022</v>
       </c>
       <c r="R27">
-        <v>219.198601062364</v>
+        <v>746.062474954412</v>
       </c>
       <c r="S27">
-        <v>0.02257100386871367</v>
+        <v>0.07857047243361773</v>
       </c>
       <c r="T27">
-        <v>0.02919754160375958</v>
+        <v>0.1058766407660373</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.8298326666666668</v>
+        <v>2.824411333333333</v>
       </c>
       <c r="H28">
-        <v>2.489498</v>
+        <v>8.473234</v>
       </c>
       <c r="I28">
-        <v>0.04606506640808777</v>
+        <v>0.1599808896747932</v>
       </c>
       <c r="J28">
-        <v>0.05166645248782833</v>
+        <v>0.1835370452352495</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3022816666666666</v>
+        <v>0.5731823333333333</v>
       </c>
       <c r="N28">
-        <v>0.9068449999999999</v>
+        <v>1.719547</v>
       </c>
       <c r="O28">
-        <v>0.005046453083523374</v>
+        <v>0.009591340548596464</v>
       </c>
       <c r="P28">
-        <v>0.005820291139005389</v>
+        <v>0.0112658631728049</v>
       </c>
       <c r="Q28">
-        <v>0.2508432015344444</v>
+        <v>1.618902678333111</v>
       </c>
       <c r="R28">
-        <v>2.25758881381</v>
+        <v>14.570124104998</v>
       </c>
       <c r="S28">
-        <v>0.0002324651964178035</v>
+        <v>0.001534431194138382</v>
       </c>
       <c r="T28">
-        <v>0.0003007137955987502</v>
+        <v>0.002067703238761225</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.8298326666666668</v>
+        <v>2.824411333333333</v>
       </c>
       <c r="H29">
-        <v>2.489498</v>
+        <v>8.473234</v>
       </c>
       <c r="I29">
-        <v>0.04606506640808777</v>
+        <v>0.1599808896747932</v>
       </c>
       <c r="J29">
-        <v>0.05166645248782833</v>
+        <v>0.1835370452352495</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.2962195</v>
+        <v>17.2151155</v>
       </c>
       <c r="N29">
-        <v>32.592439</v>
+        <v>34.43023100000001</v>
       </c>
       <c r="O29">
-        <v>0.2720578725544566</v>
+        <v>0.2880689542255981</v>
       </c>
       <c r="P29">
-        <v>0.2091840214262345</v>
+        <v>0.2255746841779061</v>
       </c>
       <c r="Q29">
-        <v>13.52313528427034</v>
+        <v>48.62256732284234</v>
       </c>
       <c r="R29">
-        <v>81.138811705622</v>
+        <v>291.7354039370541</v>
       </c>
       <c r="S29">
-        <v>0.01253236396606412</v>
+        <v>0.04608552758469846</v>
       </c>
       <c r="T29">
-        <v>0.01080779630423141</v>
+        <v>0.04140131101388747</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.8298326666666668</v>
+        <v>2.824411333333333</v>
       </c>
       <c r="H30">
-        <v>2.489498</v>
+        <v>8.473234</v>
       </c>
       <c r="I30">
-        <v>0.04606506640808777</v>
+        <v>0.1599808896747932</v>
       </c>
       <c r="J30">
-        <v>0.05166645248782833</v>
+        <v>0.1835370452352495</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.582807</v>
+        <v>3.023362333333333</v>
       </c>
       <c r="N30">
-        <v>16.748421</v>
+        <v>9.070087000000001</v>
       </c>
       <c r="O30">
-        <v>0.09320238938252694</v>
+        <v>0.05059140181826821</v>
       </c>
       <c r="P30">
-        <v>0.1074943196892874</v>
+        <v>0.05942399894125402</v>
       </c>
       <c r="Q30">
-        <v>4.632795620295334</v>
+        <v>8.539218839039778</v>
       </c>
       <c r="R30">
-        <v>41.695160582658</v>
+        <v>76.852969551358</v>
       </c>
       <c r="S30">
-        <v>0.004293374256298558</v>
+        <v>0.008093657472781499</v>
       </c>
       <c r="T30">
-        <v>0.005553850160937995</v>
+        <v>0.01090650518174036</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.8298326666666668</v>
+        <v>2.824411333333333</v>
       </c>
       <c r="H31">
-        <v>2.489498</v>
+        <v>8.473234</v>
       </c>
       <c r="I31">
-        <v>0.04606506640808777</v>
+        <v>0.1599808896747932</v>
       </c>
       <c r="J31">
-        <v>0.05166645248782833</v>
+        <v>0.1835370452352495</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.7729826666666667</v>
+        <v>0.1662856666666667</v>
       </c>
       <c r="N31">
-        <v>2.318948</v>
+        <v>0.498857</v>
       </c>
       <c r="O31">
-        <v>0.01290458930151279</v>
+        <v>0.002782539454897822</v>
       </c>
       <c r="P31">
-        <v>0.01488341722809771</v>
+        <v>0.003268334453664794</v>
       </c>
       <c r="Q31">
-        <v>0.6414462675671112</v>
+        <v>0.4696591215042222</v>
       </c>
       <c r="R31">
-        <v>5.773016408104001</v>
+        <v>4.226932093538</v>
       </c>
       <c r="S31">
-        <v>0.0005944507631432855</v>
+        <v>0.0004451531375497677</v>
       </c>
       <c r="T31">
-        <v>0.0007689733690720362</v>
+        <v>0.0005998604484662</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.804119</v>
+        <v>2.332</v>
       </c>
       <c r="H32">
-        <v>14.412357</v>
+        <v>6.996</v>
       </c>
       <c r="I32">
-        <v>0.2666827538331297</v>
+        <v>0.1320896253030252</v>
       </c>
       <c r="J32">
-        <v>0.2991106472783349</v>
+        <v>0.1515389718336359</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.595763499999999</v>
+        <v>9.432680000000001</v>
       </c>
       <c r="N32">
-        <v>15.191527</v>
+        <v>18.86536</v>
       </c>
       <c r="O32">
-        <v>0.1268077702461478</v>
+        <v>0.1578416516081298</v>
       </c>
       <c r="P32">
-        <v>0.09750189942720214</v>
+        <v>0.1235991598169208</v>
       </c>
       <c r="Q32">
-        <v>36.4909517498565</v>
+        <v>21.99700976</v>
       </c>
       <c r="R32">
-        <v>218.945710499139</v>
+        <v>131.98205856</v>
       </c>
       <c r="S32">
-        <v>0.03381744537668149</v>
+        <v>0.02084924461812851</v>
       </c>
       <c r="T32">
-        <v>0.02916385624853754</v>
+        <v>0.01873008959815742</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.804119</v>
+        <v>2.332</v>
       </c>
       <c r="H33">
-        <v>14.412357</v>
+        <v>6.996</v>
       </c>
       <c r="I33">
-        <v>0.2666827538331297</v>
+        <v>0.1320896253030252</v>
       </c>
       <c r="J33">
-        <v>0.2991106472783349</v>
+        <v>0.1515389718336359</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>88.049318</v>
       </c>
       <c r="O33">
-        <v>0.4899809254318325</v>
+        <v>0.4911241123445096</v>
       </c>
       <c r="P33">
-        <v>0.5651160510901728</v>
+        <v>0.5768679594374495</v>
       </c>
       <c r="Q33">
-        <v>140.999800513614</v>
+        <v>68.44366985866668</v>
       </c>
       <c r="R33">
-        <v>1268.998204622526</v>
+        <v>615.993028728</v>
       </c>
       <c r="S33">
-        <v>0.1306694625198665</v>
+        <v>0.06487239997686713</v>
       </c>
       <c r="T33">
-        <v>0.1690322278289582</v>
+        <v>0.08741797745691866</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.804119</v>
+        <v>2.332</v>
       </c>
       <c r="H34">
-        <v>14.412357</v>
+        <v>6.996</v>
       </c>
       <c r="I34">
-        <v>0.2666827538331297</v>
+        <v>0.1320896253030252</v>
       </c>
       <c r="J34">
-        <v>0.2991106472783349</v>
+        <v>0.1515389718336359</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.3022816666666666</v>
+        <v>0.5731823333333333</v>
       </c>
       <c r="N34">
-        <v>0.9068449999999999</v>
+        <v>1.719547</v>
       </c>
       <c r="O34">
-        <v>0.005046453083523374</v>
+        <v>0.009591340548596464</v>
       </c>
       <c r="P34">
-        <v>0.005820291139005389</v>
+        <v>0.0112658631728049</v>
       </c>
       <c r="Q34">
-        <v>1.452197098185</v>
+        <v>1.336661201333333</v>
       </c>
       <c r="R34">
-        <v>13.069773883665</v>
+        <v>12.029950812</v>
       </c>
       <c r="S34">
-        <v>0.001345802005403702</v>
+        <v>0.001266916579217819</v>
       </c>
       <c r="T34">
-        <v>0.001740911049936259</v>
+        <v>0.001707217322025278</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.804119</v>
+        <v>2.332</v>
       </c>
       <c r="H35">
-        <v>14.412357</v>
+        <v>6.996</v>
       </c>
       <c r="I35">
-        <v>0.2666827538331297</v>
+        <v>0.1320896253030252</v>
       </c>
       <c r="J35">
-        <v>0.2991106472783349</v>
+        <v>0.1515389718336359</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.2962195</v>
+        <v>17.2151155</v>
       </c>
       <c r="N35">
-        <v>32.592439</v>
+        <v>34.43023100000001</v>
       </c>
       <c r="O35">
-        <v>0.2720578725544566</v>
+        <v>0.2880689542255981</v>
       </c>
       <c r="P35">
-        <v>0.2091840214262345</v>
+        <v>0.2255746841779061</v>
       </c>
       <c r="Q35">
-        <v>78.2889777281205</v>
+        <v>40.14564934600001</v>
       </c>
       <c r="R35">
-        <v>469.733866368723</v>
+        <v>240.8738960760001</v>
       </c>
       <c r="S35">
-        <v>0.07255314265480513</v>
+        <v>0.03805092022509357</v>
       </c>
       <c r="T35">
-        <v>0.06256916804908608</v>
+        <v>0.03418335571201702</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.804119</v>
+        <v>2.332</v>
       </c>
       <c r="H36">
-        <v>14.412357</v>
+        <v>6.996</v>
       </c>
       <c r="I36">
-        <v>0.2666827538331297</v>
+        <v>0.1320896253030252</v>
       </c>
       <c r="J36">
-        <v>0.2991106472783349</v>
+        <v>0.1515389718336359</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.582807</v>
+        <v>3.023362333333333</v>
       </c>
       <c r="N36">
-        <v>16.748421</v>
+        <v>9.070087000000001</v>
       </c>
       <c r="O36">
-        <v>0.09320238938252694</v>
+        <v>0.05059140181826821</v>
       </c>
       <c r="P36">
-        <v>0.1074943196892874</v>
+        <v>0.05942399894125402</v>
       </c>
       <c r="Q36">
-        <v>26.820469182033</v>
+        <v>7.050480961333335</v>
       </c>
       <c r="R36">
-        <v>241.384222638297</v>
+        <v>63.45432865200001</v>
       </c>
       <c r="S36">
-        <v>0.02485546986435993</v>
+        <v>0.006682599309729836</v>
       </c>
       <c r="T36">
-        <v>0.032152695541007</v>
+        <v>0.009005051701800701</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.804119</v>
+        <v>2.332</v>
       </c>
       <c r="H37">
-        <v>14.412357</v>
+        <v>6.996</v>
       </c>
       <c r="I37">
-        <v>0.2666827538331297</v>
+        <v>0.1320896253030252</v>
       </c>
       <c r="J37">
-        <v>0.2991106472783349</v>
+        <v>0.1515389718336359</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.7729826666666667</v>
+        <v>0.1662856666666667</v>
       </c>
       <c r="N37">
-        <v>2.318948</v>
+        <v>0.498857</v>
       </c>
       <c r="O37">
-        <v>0.01290458930151279</v>
+        <v>0.002782539454897822</v>
       </c>
       <c r="P37">
-        <v>0.01488341722809771</v>
+        <v>0.003268334453664794</v>
       </c>
       <c r="Q37">
-        <v>3.713500715604</v>
+        <v>0.3877781746666667</v>
       </c>
       <c r="R37">
-        <v>33.421506440436</v>
+        <v>3.490003572</v>
       </c>
       <c r="S37">
-        <v>0.003441431412012973</v>
+        <v>0.0003675445939883373</v>
       </c>
       <c r="T37">
-        <v>0.004451788560809827</v>
+        <v>0.000495280042716811</v>
       </c>
     </row>
   </sheetData>
